--- a/biology/Zoologie/Captorhinus/Captorhinus.xlsx
+++ b/biology/Zoologie/Captorhinus/Captorhinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Captorhinus est un genre éteint de reptiles de la famille également éteinte des Captorhinidae qui ont vécu pendant la période permienne.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois espèces de Captorhinus sont connues. Captorhinus aguti est l'espèce type de Captorhinus, mais il y a aussi une bonne quantité de matériel fossile appartenant aux deux autres espèces, Captorhinus magnus et Captorhinus laticeps.
 Le trait le plus distinctif de Captorhinus est son homonyme: l'accrochage du museau de l'angulation ventrale proéminente du processus prémaxillaire. D'autres caractéristiques notables incluent le processus alarylien positionné dorsalement du jugal sur la surface interne et rincé avec la marge orbitaire, le processus rétro-articulaire plus antéropostérieur que large, et la dent dentinaire antérieure fortement couchée.[Quoi ?] 
@@ -545,7 +559,9 @@
           <t>Histoire de la découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1882, Edward Cope a décrit un crâne fragmentaire du Permien inférieur du Texas recueilli par W.F. Cummins à Coffee Creek comme Ectocynodon aguti. Le nom avait ensuite été révisé plusieurs fois par différents paléontologues à mesure que d'autres genres étaient découverts. En 1911, le paléontologue Ermine Cowles Case a révisé les espèces récemment découvertes. Il a décidé d'attribuer P. (Ectodynodon) aguti, P. aduncus, et P. isolomus au genre Captorhinus, et a établi une nouvelle famille, Captorhinidae.
 Nommé par Cope du mot latin « captor », signifiant « celui qui attrape quelque chose » et le mot grec « rhino », qui signifie « du nez ». Ceci s'appuie sur la théorie que le prémaxillaire courbé caractéristique de Captorhinus peut avoir été utilisé pour attraper des proies.
